--- a/result/without_base/124/arousal/s09_2.xlsx
+++ b/result/without_base/124/arousal/s09_2.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5874999761581421</v>
+        <v>0.5300000160932541</v>
       </c>
       <c r="C2" t="n">
-        <v>41790.873046875</v>
+        <v>41755.966796875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6156818162311207</v>
+        <v>0.6077272621068087</v>
       </c>
       <c r="E2" t="n">
-        <v>41790.29794034091</v>
+        <v>41750.74609375</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6225000023841858</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C3" t="n">
-        <v>41097.66015625</v>
+        <v>40987.908203125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6443181850693442</v>
+        <v>0.6517045443708246</v>
       </c>
       <c r="E3" t="n">
-        <v>41095.75248579546</v>
+        <v>40987.79865056818</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5674999952316284</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C4" t="n">
-        <v>40397.83984375</v>
+        <v>40252.435546875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6390909173271873</v>
+        <v>0.6462499824437228</v>
       </c>
       <c r="E4" t="n">
-        <v>40394.81356534091</v>
+        <v>40249.26526988636</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6424999833106995</v>
+        <v>0.5400000065565109</v>
       </c>
       <c r="C5" t="n">
-        <v>39690.40234375</v>
+        <v>39515.703125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6802272688258778</v>
+        <v>0.5103408992290497</v>
       </c>
       <c r="E5" t="n">
-        <v>39688.68501420454</v>
+        <v>39516.49609375</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6349999904632568</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C6" t="n">
-        <v>38993.2734375</v>
+        <v>38799.46484375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6853409138592806</v>
+        <v>0.6629545417698947</v>
       </c>
       <c r="E6" t="n">
-        <v>38992.41122159091</v>
+        <v>38797.37073863636</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6424999833106995</v>
+        <v>0.6400000154972076</v>
       </c>
       <c r="C7" t="n">
-        <v>38306.2890625</v>
+        <v>38086.484375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6770454536784779</v>
+        <v>0.6976136402650313</v>
       </c>
       <c r="E7" t="n">
-        <v>38304.78089488636</v>
+        <v>38086.04900568182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6024999916553497</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C8" t="n">
-        <v>37625.916015625</v>
+        <v>37390.388671875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6943181807344611</v>
+        <v>0.6609090891751376</v>
       </c>
       <c r="E8" t="n">
-        <v>37624.08132102273</v>
+        <v>37389.51207386364</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6225000023841858</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C9" t="n">
-        <v>36955.916015625</v>
+        <v>36704.42578125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7026136354966597</v>
+        <v>0.7068181796507402</v>
       </c>
       <c r="E9" t="n">
-        <v>36953.73579545454</v>
+        <v>36703.29509943182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C10" t="n">
-        <v>36293.1171875</v>
+        <v>36026.69921875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7150000008669767</v>
+        <v>0.7053409056230024</v>
       </c>
       <c r="E10" t="n">
-        <v>36291.47762784091</v>
+        <v>36025.58416193182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6274999976158142</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C11" t="n">
-        <v>35640.7890625</v>
+        <v>35359.10546875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7265909043225375</v>
+        <v>0.6917045441540804</v>
       </c>
       <c r="E11" t="n">
-        <v>35639.34232954546</v>
+        <v>35358.37535511364</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6274999976158142</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="C12" t="n">
-        <v>34997</v>
+        <v>34702.3359375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7412500056353483</v>
+        <v>0.7228409106081183</v>
       </c>
       <c r="E12" t="n">
-        <v>34995.40909090909</v>
+        <v>34701.39950284091</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.612500011920929</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C13" t="n">
-        <v>34363.236328125</v>
+        <v>34055.900390625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7475000078027899</v>
+        <v>0.7305681813846935</v>
       </c>
       <c r="E13" t="n">
-        <v>34361.66725852273</v>
+        <v>34055.07670454546</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.612500011920929</v>
+        <v>0.625</v>
       </c>
       <c r="C14" t="n">
-        <v>33739.853515625</v>
+        <v>33419.677734375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7138636328957297</v>
+        <v>0.741136372089386</v>
       </c>
       <c r="E14" t="n">
-        <v>33738.00568181818</v>
+        <v>33418.67365056818</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -796,13 +796,13 @@
         <v>0.6574999988079071</v>
       </c>
       <c r="C15" t="n">
-        <v>33124.111328125</v>
+        <v>32794.60546875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7489772709933195</v>
+        <v>0.7437499978325584</v>
       </c>
       <c r="E15" t="n">
-        <v>33122.44211647727</v>
+        <v>32793.22691761364</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6674999892711639</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C16" t="n">
-        <v>32517.1826171875</v>
+        <v>32179.009765625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.777159105647694</v>
+        <v>0.7339772690426219</v>
       </c>
       <c r="E16" t="n">
-        <v>32515.97727272727</v>
+        <v>32177.65962357954</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6425000131130219</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C17" t="n">
-        <v>31921.60546875</v>
+        <v>31573.2763671875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7442045482722196</v>
+        <v>0.7481818199157715</v>
       </c>
       <c r="E17" t="n">
-        <v>31920.13405539773</v>
+        <v>31572.18359375</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.6424999833106995</v>
       </c>
       <c r="C18" t="n">
-        <v>31334.365234375</v>
+        <v>30978.013671875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7586363608186896</v>
+        <v>0.7623863653703169</v>
       </c>
       <c r="E18" t="n">
-        <v>31333.10014204546</v>
+        <v>30977.11576704546</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6724999845027924</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C19" t="n">
-        <v>30757.0908203125</v>
+        <v>30393.3798828125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7740909023718401</v>
+        <v>0.7647727186029608</v>
       </c>
       <c r="E19" t="n">
-        <v>30755.626953125</v>
+        <v>30392.08096590909</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.675000011920929</v>
+        <v>0.6350000202655792</v>
       </c>
       <c r="C20" t="n">
-        <v>30189.5849609375</v>
+        <v>29818.76953125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7451136383143339</v>
+        <v>0.753181820566004</v>
       </c>
       <c r="E20" t="n">
-        <v>30188.14808238636</v>
+        <v>29817.46431107954</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.625</v>
       </c>
       <c r="C21" t="n">
-        <v>29630.09375</v>
+        <v>29253.0576171875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7915909127755598</v>
+        <v>0.7714772712100636</v>
       </c>
       <c r="E21" t="n">
-        <v>29628.69691051136</v>
+        <v>29251.94708806818</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6424999833106995</v>
+        <v>0.6124999821186066</v>
       </c>
       <c r="C22" t="n">
-        <v>29080.4287109375</v>
+        <v>28697.9423828125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8001136346296831</v>
+        <v>0.7621590928597883</v>
       </c>
       <c r="E22" t="n">
-        <v>29079.05202414773</v>
+        <v>28696.65607244318</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6475000083446503</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C23" t="n">
-        <v>28540.6982421875</v>
+        <v>28152.4716796875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7579545432871039</v>
+        <v>0.7676136331124739</v>
       </c>
       <c r="E23" t="n">
-        <v>28539.08664772727</v>
+        <v>28151.03125</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6774999797344208</v>
+        <v>0.6449999809265137</v>
       </c>
       <c r="C24" t="n">
-        <v>28008.5029296875</v>
+        <v>27615.9443359375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7952272729440168</v>
+        <v>0.7927272807468068</v>
       </c>
       <c r="E24" t="n">
-        <v>28007.05610795454</v>
+        <v>27614.61168323864</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6525000035762787</v>
+        <v>0.6050000190734863</v>
       </c>
       <c r="C25" t="n">
-        <v>27485.5947265625</v>
+        <v>27089.107421875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8031818216497247</v>
+        <v>0.7828409075737</v>
       </c>
       <c r="E25" t="n">
-        <v>27484.28586647727</v>
+        <v>27087.78604403409</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6475000083446503</v>
+        <v>0.6449999809265137</v>
       </c>
       <c r="C26" t="n">
-        <v>26971.8544921875</v>
+        <v>26571.3955078125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8123863664540377</v>
+        <v>0.7822727290066805</v>
       </c>
       <c r="E26" t="n">
-        <v>26970.39719460227</v>
+        <v>26570.146484375</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C27" t="n">
-        <v>26466.400390625</v>
+        <v>26062.9873046875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8151136311617765</v>
+        <v>0.7770454558459196</v>
       </c>
       <c r="E27" t="n">
-        <v>26465.16725852273</v>
+        <v>26061.70987215909</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="C28" t="n">
-        <v>25969.7294921875</v>
+        <v>25563.10546875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7819318121129816</v>
+        <v>0.8050000017339533</v>
       </c>
       <c r="E28" t="n">
-        <v>25968.62411221591</v>
+        <v>25561.98135653409</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.6725000143051147</v>
       </c>
       <c r="C29" t="n">
-        <v>25482.1630859375</v>
+        <v>25072.8369140625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7944318164478649</v>
+        <v>0.7722727222876116</v>
       </c>
       <c r="E29" t="n">
-        <v>25480.68980823864</v>
+        <v>25071.58718039773</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6674999892711639</v>
+        <v>0.6599999964237213</v>
       </c>
       <c r="C30" t="n">
-        <v>25001.98828125</v>
+        <v>24590.5693359375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8076136383143339</v>
+        <v>0.7899999943646517</v>
       </c>
       <c r="E30" t="n">
-        <v>25000.61825284091</v>
+        <v>24589.43199573864</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6349999904632568</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="C31" t="n">
-        <v>24531.0390625</v>
+        <v>24117.265625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7553409067067233</v>
+        <v>0.7945454554124312</v>
       </c>
       <c r="E31" t="n">
-        <v>24529.64364346591</v>
+        <v>24116.04296875</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.6674999892711639</v>
       </c>
       <c r="C32" t="n">
-        <v>24067.4189453125</v>
+        <v>23652.046875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8010227246717974</v>
+        <v>0.8036363612521779</v>
       </c>
       <c r="E32" t="n">
-        <v>24065.81764914773</v>
+        <v>23651.06178977273</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6025000214576721</v>
+        <v>0.6525000035762787</v>
       </c>
       <c r="C33" t="n">
-        <v>23611.7861328125</v>
+        <v>23195.576171875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8198863701386885</v>
+        <v>0.8087500117041848</v>
       </c>
       <c r="E33" t="n">
-        <v>23610.32688210227</v>
+        <v>23194.48384232954</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6524999737739563</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C34" t="n">
-        <v>23164.283203125</v>
+        <v>22747.7724609375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.818522724238309</v>
+        <v>0.7617045478387312</v>
       </c>
       <c r="E34" t="n">
-        <v>23162.98774857954</v>
+        <v>22746.42755681818</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6175000071525574</v>
+        <v>0.6650000214576721</v>
       </c>
       <c r="C35" t="n">
-        <v>22724.6572265625</v>
+        <v>22306.7138671875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8251136378808455</v>
+        <v>0.79965909502723</v>
       </c>
       <c r="E35" t="n">
-        <v>22723.35014204546</v>
+        <v>22305.70738636364</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6699999868869781</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C36" t="n">
-        <v>22292.4375</v>
+        <v>21874.33203125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8202272707765753</v>
+        <v>0.7265909043225375</v>
       </c>
       <c r="E36" t="n">
-        <v>22291.30450994318</v>
+        <v>21873.58345170454</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6400000154972076</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C37" t="n">
-        <v>21868.212890625</v>
+        <v>21449.533203125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8059090863574635</v>
+        <v>0.8168181885372509</v>
       </c>
       <c r="E37" t="n">
-        <v>21866.98987926136</v>
+        <v>21448.63849431818</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5874999761581421</v>
+        <v>0.625</v>
       </c>
       <c r="C38" t="n">
-        <v>21452.9541015625</v>
+        <v>21033.2197265625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6971590952439741</v>
+        <v>0.762840910391374</v>
       </c>
       <c r="E38" t="n">
-        <v>21451.20170454546</v>
+        <v>21032.01828835227</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.6725000143051147</v>
       </c>
       <c r="C39" t="n">
-        <v>21041.7646484375</v>
+        <v>20623.4609375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8162499991330233</v>
+        <v>0.8096590909090909</v>
       </c>
       <c r="E39" t="n">
-        <v>21040.53036221591</v>
+        <v>20622.35138494318</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6324999928474426</v>
+        <v>0.6775000095367432</v>
       </c>
       <c r="C40" t="n">
-        <v>20639.11328125</v>
+        <v>20221.4697265625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8365909077904441</v>
+        <v>0.8171590945937417</v>
       </c>
       <c r="E40" t="n">
-        <v>20638.00284090909</v>
+        <v>20220.27041903409</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.6775000095367432</v>
       </c>
       <c r="C41" t="n">
-        <v>20243.83203125</v>
+        <v>19826.724609375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8013636361468922</v>
+        <v>0.8209090828895569</v>
       </c>
       <c r="E41" t="n">
-        <v>20242.83913352273</v>
+        <v>19825.54119318182</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6774999797344208</v>
+        <v>0.6324999928474426</v>
       </c>
       <c r="C42" t="n">
-        <v>19855.90625</v>
+        <v>19439.671875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8150000030344183</v>
+        <v>0.7815909114750949</v>
       </c>
       <c r="E42" t="n">
-        <v>19854.66725852273</v>
+        <v>19438.20081676136</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6825000047683716</v>
+        <v>0.6699999868869781</v>
       </c>
       <c r="C43" t="n">
-        <v>19474.171875</v>
+        <v>19058.353515625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8204545378684998</v>
+        <v>0.8255681829019026</v>
       </c>
       <c r="E43" t="n">
-        <v>19473.14595170454</v>
+        <v>19057.37340198864</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C44" t="n">
-        <v>19099.5673828125</v>
+        <v>18684.9794921875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8106818199157715</v>
+        <v>0.8160227374597029</v>
       </c>
       <c r="E44" t="n">
-        <v>19098.54403409091</v>
+        <v>18683.80415482954</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.625</v>
+        <v>0.6574999988079071</v>
       </c>
       <c r="C45" t="n">
-        <v>18732.181640625</v>
+        <v>18318.0712890625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7834090861407194</v>
+        <v>0.8242045478387312</v>
       </c>
       <c r="E45" t="n">
-        <v>18730.90056818182</v>
+        <v>18316.96999289773</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C46" t="n">
-        <v>18370.3271484375</v>
+        <v>17957.826171875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8289772759784352</v>
+        <v>0.8236363584345038</v>
       </c>
       <c r="E46" t="n">
-        <v>18369.22958096591</v>
+        <v>17956.85671164773</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6050000041723251</v>
       </c>
       <c r="C47" t="n">
-        <v>18015.259765625</v>
+        <v>17604.7646484375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8332954482598738</v>
+        <v>0.7903409112583507</v>
       </c>
       <c r="E47" t="n">
-        <v>18014.18252840909</v>
+        <v>17603.63583096591</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6699999868869781</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C48" t="n">
-        <v>17666.802734375</v>
+        <v>17257.4375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8205681876702742</v>
+        <v>0.7935227264057506</v>
       </c>
       <c r="E48" t="n">
-        <v>17665.62375710227</v>
+        <v>17256.47549715909</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6924999952316284</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C49" t="n">
-        <v>17324.0390625</v>
+        <v>16916.986328125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8423863595182245</v>
+        <v>0.8081818168813532</v>
       </c>
       <c r="E49" t="n">
-        <v>17323.14524147727</v>
+        <v>16915.82386363636</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6974999904632568</v>
+        <v>0.6775000095367432</v>
       </c>
       <c r="C50" t="n">
-        <v>16987.767578125</v>
+        <v>16582.3583984375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8339772766286676</v>
+        <v>0.8162499991330233</v>
       </c>
       <c r="E50" t="n">
-        <v>16986.91264204546</v>
+        <v>16581.33451704546</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6699999868869781</v>
+        <v>0.6724999845027924</v>
       </c>
       <c r="C51" t="n">
-        <v>16657.443359375</v>
+        <v>16253.9013671875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8326136307282881</v>
+        <v>0.7581818103790283</v>
       </c>
       <c r="E51" t="n">
-        <v>16656.64612926136</v>
+        <v>16253.30069247159</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.617499977350235</v>
       </c>
       <c r="C52" t="n">
-        <v>16334.33056640625</v>
+        <v>15932.82568359375</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7548863671042703</v>
+        <v>0.7448863549665972</v>
       </c>
       <c r="E52" t="n">
-        <v>16332.94007457386</v>
+        <v>15931.57874644886</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6825000047683716</v>
+        <v>0.6050000190734863</v>
       </c>
       <c r="C53" t="n">
-        <v>16014.978515625</v>
+        <v>15615.49853515625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8218181837688793</v>
+        <v>0.8007954521612688</v>
       </c>
       <c r="E53" t="n">
-        <v>16013.94815340909</v>
+        <v>15614.779296875</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6674999892711639</v>
+        <v>0.6525000035762787</v>
       </c>
       <c r="C54" t="n">
-        <v>15702.12158203125</v>
+        <v>15305.10302734375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8431818214329806</v>
+        <v>0.8313636400482871</v>
       </c>
       <c r="E54" t="n">
-        <v>15701.1689453125</v>
+        <v>15304.31356534091</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.6825000047683716</v>
       </c>
       <c r="C55" t="n">
-        <v>15395.25244140625</v>
+        <v>15000.59716796875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8251136378808455</v>
+        <v>0.8178409012881193</v>
       </c>
       <c r="E55" t="n">
-        <v>15394.19016335227</v>
+        <v>14999.72274502841</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>0.6500000059604645</v>
       </c>
       <c r="C56" t="n">
-        <v>15093.5625</v>
+        <v>14701.4521484375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8322727192531932</v>
+        <v>0.8157954595305703</v>
       </c>
       <c r="E56" t="n">
-        <v>15092.6025390625</v>
+        <v>14700.6357421875</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C57" t="n">
-        <v>14797.2978515625</v>
+        <v>14407.9091796875</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8418181809512052</v>
+        <v>0.8165909160267223</v>
       </c>
       <c r="E57" t="n">
-        <v>14796.52077414773</v>
+        <v>14407.14568536932</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.6650000214576721</v>
       </c>
       <c r="C58" t="n">
-        <v>14506.9453125</v>
+        <v>14120.0107421875</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8347727331248197</v>
+        <v>0.8110227259722623</v>
       </c>
       <c r="E58" t="n">
-        <v>14505.93101917614</v>
+        <v>14119.15740411932</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6825000047683716</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="C59" t="n">
-        <v>14221.4697265625</v>
+        <v>13837.1171875</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8317045406861738</v>
+        <v>0.8021590818058361</v>
       </c>
       <c r="E59" t="n">
-        <v>14220.44850852273</v>
+        <v>13836.39177911932</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6324999928474426</v>
+        <v>0.6199999749660492</v>
       </c>
       <c r="C60" t="n">
-        <v>13941.61572265625</v>
+        <v>13560.39111328125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7913636348464272</v>
+        <v>0.7572727257555182</v>
       </c>
       <c r="E60" t="n">
-        <v>13940.44584517045</v>
+        <v>13559.32510653409</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.637499988079071</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C61" t="n">
-        <v>13665.90380859375</v>
+        <v>13287.2607421875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.835340911691839</v>
+        <v>0.7885227203369141</v>
       </c>
       <c r="E61" t="n">
-        <v>13665.03968394886</v>
+        <v>13286.5966796875</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C62" t="n">
-        <v>13395.822265625</v>
+        <v>13020.44091796875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8299999887293036</v>
+        <v>0.8153409090909091</v>
       </c>
       <c r="E62" t="n">
-        <v>13394.9228515625</v>
+        <v>13019.35333806818</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6675000190734863</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C63" t="n">
-        <v>13130.916015625</v>
+        <v>12757.76953125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8173863725228743</v>
+        <v>0.8314772790128534</v>
       </c>
       <c r="E63" t="n">
-        <v>13129.8916015625</v>
+        <v>12756.96102627841</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.6424999833106995</v>
       </c>
       <c r="C64" t="n">
-        <v>12870.25732421875</v>
+        <v>12500.7109375</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8305681835521351</v>
+        <v>0.8099999969655817</v>
       </c>
       <c r="E64" t="n">
-        <v>12869.42169744318</v>
+        <v>12499.69477982955</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6974999904632568</v>
+        <v>0.6574999988079071</v>
       </c>
       <c r="C65" t="n">
-        <v>12614.802734375</v>
+        <v>12247.77490234375</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8296590989286249</v>
+        <v>0.8200000036846508</v>
       </c>
       <c r="E65" t="n">
-        <v>12613.89914772727</v>
+        <v>12246.98091264205</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C66" t="n">
-        <v>12363.81591796875</v>
+        <v>11999.7568359375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8265909119085832</v>
+        <v>0.8128409060564908</v>
       </c>
       <c r="E66" t="n">
-        <v>12362.9912109375</v>
+        <v>11999.12393465909</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6675000190734863</v>
+        <v>0.6450000107288361</v>
       </c>
       <c r="C67" t="n">
-        <v>12117.52099609375</v>
+        <v>11756.53955078125</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8270454569296404</v>
+        <v>0.8175000006502325</v>
       </c>
       <c r="E67" t="n">
-        <v>12116.74529474432</v>
+        <v>11755.8876953125</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6624999940395355</v>
+        <v>0.6324999928474426</v>
       </c>
       <c r="C68" t="n">
-        <v>11875.7646484375</v>
+        <v>11517.865234375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8362499908967451</v>
+        <v>0.722727277062156</v>
       </c>
       <c r="E68" t="n">
-        <v>11874.96999289773</v>
+        <v>11517.44353693182</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6875</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C69" t="n">
-        <v>11638.88427734375</v>
+        <v>11284.111328125</v>
       </c>
       <c r="D69" t="n">
-        <v>0.806477275761691</v>
+        <v>0.7876136411320079</v>
       </c>
       <c r="E69" t="n">
-        <v>11637.94415838068</v>
+        <v>11283.17569247159</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C70" t="n">
-        <v>11405.69384765625</v>
+        <v>11053.69189453125</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8162499991330233</v>
+        <v>0.8325000026009299</v>
       </c>
       <c r="E70" t="n">
-        <v>11404.87952769886</v>
+        <v>11053.00621448864</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7299999892711639</v>
+        <v>0.6924999952316284</v>
       </c>
       <c r="C71" t="n">
-        <v>11176.90869140625</v>
+        <v>10828.13818359375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8353409008546309</v>
+        <v>0.8215909058397467</v>
       </c>
       <c r="E71" t="n">
-        <v>11176.19806463068</v>
+        <v>10827.52716619318</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7075000107288361</v>
+        <v>0.6699999868869781</v>
       </c>
       <c r="C72" t="n">
-        <v>10952.458984375</v>
+        <v>10607.05810546875</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8351136337627064</v>
+        <v>0.8218181729316711</v>
       </c>
       <c r="E72" t="n">
-        <v>10951.75248579545</v>
+        <v>10606.25763494318</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6525000035762787</v>
       </c>
       <c r="C73" t="n">
-        <v>10732.16455078125</v>
+        <v>10389.97802734375</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8490909012881193</v>
+        <v>0.8245454593138262</v>
       </c>
       <c r="E73" t="n">
-        <v>10731.47043678977</v>
+        <v>10389.15385298295</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="C74" t="n">
-        <v>10516.42138671875</v>
+        <v>10176.75390625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8061363697052002</v>
+        <v>0.7971590974114158</v>
       </c>
       <c r="E74" t="n">
-        <v>10515.52938565341</v>
+        <v>10176.14808238636</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.625</v>
       </c>
       <c r="C75" t="n">
-        <v>10304.58447265625</v>
+        <v>9968.625</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7796591032635082</v>
+        <v>0.7439772703430869</v>
       </c>
       <c r="E75" t="n">
-        <v>10303.6279296875</v>
+        <v>9967.6572265625</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6474999785423279</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C76" t="n">
-        <v>10095.7548828125</v>
+        <v>9762.66552734375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8389772772789001</v>
+        <v>0.7693181796507402</v>
       </c>
       <c r="E76" t="n">
-        <v>10095.04918323864</v>
+        <v>9762.262961647728</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6774999797344208</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C77" t="n">
-        <v>9891.58349609375</v>
+        <v>9561.51708984375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.831363629211079</v>
+        <v>0.7979545484889637</v>
       </c>
       <c r="E77" t="n">
-        <v>9890.781605113636</v>
+        <v>9561.058860085228</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.6599999964237213</v>
       </c>
       <c r="C78" t="n">
-        <v>9691.224609375</v>
+        <v>9364.60546875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8193181698972528</v>
+        <v>0.789204554124312</v>
       </c>
       <c r="E78" t="n">
-        <v>9690.372602982954</v>
+        <v>9363.857865767046</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6674999892711639</v>
+        <v>0.6350000202655792</v>
       </c>
       <c r="C79" t="n">
-        <v>9495.1083984375</v>
+        <v>9170.953125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7682954560626637</v>
+        <v>0.8162500099702314</v>
       </c>
       <c r="E79" t="n">
-        <v>9494.052379261364</v>
+        <v>9170.213600852272</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6825000047683716</v>
+        <v>0.6574999988079071</v>
       </c>
       <c r="C80" t="n">
-        <v>9301.1591796875</v>
+        <v>8980.9140625</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8418181863698092</v>
+        <v>0.8073863549665972</v>
       </c>
       <c r="E80" t="n">
-        <v>9300.465553977272</v>
+        <v>8980.34854403409</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C81" t="n">
-        <v>9111.97265625</v>
+        <v>8794.6953125</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8097727298736572</v>
+        <v>0.8082954450087114</v>
       </c>
       <c r="E81" t="n">
-        <v>9111.218217329546</v>
+        <v>8794.107421875</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04210526315789474</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1984,10 +1984,10 @@
         <v>0.006896551724137931</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04210526315789474</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1995,469 +1995,469 @@
         <v>0.006896551724137931</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1368421052631579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.01379310344827586</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1368421052631579</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.01379310344827586</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.1473684210526316</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.02758620689655172</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.1473684210526316</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.02758620689655172</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1894736842105263</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.04827586206896552</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1894736842105263</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.04827586206896552</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.2947368421052631</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.05517241379310345</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.2947368421052631</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.05517241379310345</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2526315789473684</v>
+        <v>0.3263157894736842</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.06206896551724138</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2526315789473684</v>
+        <v>0.3263157894736842</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.06206896551724138</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3368421052631579</v>
+        <v>0.3789473684210526</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.08275862068965517</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3368421052631579</v>
+        <v>0.3789473684210526</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.08275862068965517</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3473684210526316</v>
+        <v>0.4105263157894737</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.0896551724137931</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3473684210526316</v>
+        <v>0.4105263157894737</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.0896551724137931</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3789473684210526</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.09655172413793103</v>
+        <v>0.1172413793103448</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3789473684210526</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.09655172413793103</v>
+        <v>0.1172413793103448</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4</v>
+        <v>0.4315789473684211</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1103448275862069</v>
+        <v>0.1448275862068966</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4</v>
+        <v>0.4315789473684211</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1103448275862069</v>
+        <v>0.1448275862068966</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4526315789473684</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1241379310344828</v>
+        <v>0.1586206896551724</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4526315789473684</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1241379310344828</v>
+        <v>0.1586206896551724</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4526315789473684</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1793103448275862</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4526315789473684</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1793103448275862</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4631578947368421</v>
+        <v>0.4947368421052631</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1931034482758621</v>
+        <v>0.1793103448275862</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4631578947368421</v>
+        <v>0.4947368421052631</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1931034482758621</v>
+        <v>0.1793103448275862</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.5157894736842106</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2206896551724138</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.5157894736842106</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2206896551724138</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5052631578947369</v>
+        <v>0.5578947368421052</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2344827586206897</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5052631578947369</v>
+        <v>0.5578947368421052</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2344827586206897</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5157894736842106</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2551724137931035</v>
+        <v>0.2482758620689655</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5157894736842106</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2551724137931035</v>
+        <v>0.2482758620689655</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5894736842105263</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.303448275862069</v>
+        <v>0.2689655172413793</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5894736842105263</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.303448275862069</v>
+        <v>0.2689655172413793</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5684210526315789</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.2827586206896552</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5684210526315789</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.2827586206896552</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6105263157894737</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3172413793103449</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6105263157894737</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3172413793103449</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.6210526315789474</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3724137931034483</v>
+        <v>0.3241379310344827</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.6210526315789474</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3724137931034483</v>
+        <v>0.3241379310344827</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C47" t="n">
         <v>0.6421052631578947</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.3310344827586207</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C48" t="n">
         <v>0.6421052631578947</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.3310344827586207</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C49" t="n">
         <v>0.6526315789473685</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3862068965517241</v>
+        <v>0.3655172413793104</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C50" t="n">
         <v>0.6526315789473685</v>
@@ -2498,32 +2498,32 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3862068965517241</v>
+        <v>0.3655172413793104</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6736842105263158</v>
+        <v>0.6631578947368421</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4</v>
+        <v>0.3862068965517241</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6736842105263158</v>
+        <v>0.6631578947368421</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4</v>
+        <v>0.3862068965517241</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C53" t="n">
         <v>0.6842105263157895</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4068965517241379</v>
+        <v>0.3931034482758621</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C54" t="n">
         <v>0.6842105263157895</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4068965517241379</v>
+        <v>0.3931034482758621</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C55" t="n">
         <v>0.7052631578947368</v>
@@ -2556,7 +2556,7 @@
         <v>0.4137931034482759</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C56" t="n">
         <v>0.7052631578947368</v>
@@ -2567,230 +2567,230 @@
         <v>0.4137931034482759</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7157894736842105</v>
+        <v>0.7263157894736842</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4206896551724138</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7157894736842105</v>
+        <v>0.7263157894736842</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4206896551724138</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7263157894736842</v>
+        <v>0.7684210526315789</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4896551724137931</v>
+        <v>0.4413793103448276</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7263157894736842</v>
+        <v>0.7684210526315789</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4896551724137931</v>
+        <v>0.4413793103448276</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7789473684210526</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.503448275862069</v>
+        <v>0.4620689655172414</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7789473684210526</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.503448275862069</v>
+        <v>0.4620689655172414</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5310344827586206</v>
+        <v>0.4896551724137931</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5310344827586206</v>
+        <v>0.4896551724137931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7578947368421053</v>
+        <v>0.8315789473684211</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.496551724137931</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7578947368421053</v>
+        <v>0.8315789473684211</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.496551724137931</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7684210526315789</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5586206896551724</v>
+        <v>0.5448275862068965</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7684210526315789</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5586206896551724</v>
+        <v>0.5448275862068965</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.8526315789473684</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5655172413793104</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.8526315789473684</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5655172413793104</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8631578947368421</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5793103448275863</v>
+        <v>0.5724137931034483</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8631578947368421</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5793103448275863</v>
+        <v>0.5724137931034483</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8</v>
+        <v>0.8842105263157894</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6344827586206897</v>
+        <v>0.6068965517241379</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8</v>
+        <v>0.8842105263157894</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6344827586206897</v>
+        <v>0.6068965517241379</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8105263157894737</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6413793103448275</v>
+        <v>0.6344827586206897</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8105263157894737</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6413793103448275</v>
+        <v>0.6344827586206897</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8210526315789474</v>
+        <v>0.9052631578947369</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2798,10 +2798,10 @@
         <v>0.6482758620689655</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8210526315789474</v>
+        <v>0.9052631578947369</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2809,54 +2809,54 @@
         <v>0.6482758620689655</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.9157894736842105</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6758620689655173</v>
+        <v>0.7103448275862069</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.9157894736842105</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6758620689655173</v>
+        <v>0.7103448275862069</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8631578947368421</v>
+        <v>0.9263157894736842</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6827586206896552</v>
+        <v>0.7310344827586207</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8631578947368421</v>
+        <v>0.9263157894736842</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6827586206896552</v>
+        <v>0.7310344827586207</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8736842105263158</v>
+        <v>0.9368421052631579</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2864,10 +2864,10 @@
         <v>0.7448275862068966</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8736842105263158</v>
+        <v>0.9368421052631579</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2875,196 +2875,108 @@
         <v>0.7448275862068966</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8842105263157894</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7793103448275862</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8842105263157894</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7793103448275862</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9578947368421052</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.8137931034482758</v>
+        <v>0.8</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9578947368421052</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8137931034482758</v>
+        <v>0.8</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.968421052631579</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.968421052631579</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9263157894736842</v>
+        <v>0.9894736842105263</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8413793103448276</v>
+        <v>0.9793103448275862</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9263157894736842</v>
+        <v>0.9894736842105263</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8413793103448276</v>
+        <v>0.9793103448275862</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8689655172413793</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6901633393829401</v>
+        <v>0.7347368421052631</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="n">
-        <v>0.8689655172413793</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.968421052631579</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.968421052631579</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.9789473684210527</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.9789473684210527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9894736842105263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="n">
-        <v>0.9862068965517241</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.9894736842105263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="n">
-        <v>0.9862068965517241</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.6901633393829401</v>
-      </c>
-      <c r="C102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,7 +2991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3103,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C2" t="n">
         <v>0.006896551724137931</v>
@@ -3114,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01379310344827586</v>
+        <v>0.02068965517241379</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3125,10 +3037,10 @@
         <v>0.01052631578947368</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01379310344827586</v>
+        <v>0.02068965517241379</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3136,54 +3048,54 @@
         <v>0.01052631578947368</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07586206896551724</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03157894736842105</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07586206896551724</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.03157894736842105</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1310344827586207</v>
+        <v>0.2206896551724138</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3191,10 +3103,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1310344827586207</v>
+        <v>0.2206896551724138</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3202,252 +3114,252 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1586206896551724</v>
+        <v>0.2551724137931035</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1586206896551724</v>
+        <v>0.2551724137931035</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.2689655172413793</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.2689655172413793</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1862068965517241</v>
+        <v>0.2896551724137931</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1862068965517241</v>
+        <v>0.2896551724137931</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.3517241379310345</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.3517241379310345</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2551724137931035</v>
+        <v>0.3655172413793104</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1263157894736842</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2551724137931035</v>
+        <v>0.3655172413793104</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1263157894736842</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3172413793103449</v>
+        <v>0.3931034482758621</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3172413793103449</v>
+        <v>0.3931034482758621</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3241379310344827</v>
+        <v>0.4275862068965517</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3241379310344827</v>
+        <v>0.4275862068965517</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3517241379310345</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3517241379310345</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3586206896551724</v>
+        <v>0.4551724137931035</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1894736842105263</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3586206896551724</v>
+        <v>0.4551724137931035</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1894736842105263</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3655172413793104</v>
+        <v>0.503448275862069</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3655172413793104</v>
+        <v>0.503448275862069</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4206896551724138</v>
+        <v>0.5103448275862069</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4206896551724138</v>
+        <v>0.5103448275862069</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4344827586206896</v>
+        <v>0.5379310344827586</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3455,10 +3367,10 @@
         <v>0.2210526315789474</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4344827586206896</v>
+        <v>0.5379310344827586</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3466,10 +3378,10 @@
         <v>0.2210526315789474</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4413793103448276</v>
+        <v>0.5586206896551724</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3477,10 +3389,10 @@
         <v>0.2315789473684211</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4413793103448276</v>
+        <v>0.5586206896551724</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3488,724 +3400,636 @@
         <v>0.2315789473684211</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5793103448275863</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.2736842105263158</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5793103448275863</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.2736842105263158</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4689655172413793</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2526315789473684</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4689655172413793</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2526315789473684</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C41" t="n">
-        <v>0.496551724137931</v>
+        <v>0.6068965517241379</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C42" t="n">
-        <v>0.496551724137931</v>
+        <v>0.6068965517241379</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5103448275862069</v>
+        <v>0.6137931034482759</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2736842105263158</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5103448275862069</v>
+        <v>0.6137931034482759</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2736842105263158</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.6344827586206897</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.2842105263157895</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.6344827586206897</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2842105263157895</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.6689655172413793</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.2947368421052631</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.6689655172413793</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.2947368421052631</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C49" t="n">
-        <v>0.593103448275862</v>
+        <v>0.6758620689655173</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C50" t="n">
-        <v>0.593103448275862</v>
+        <v>0.6758620689655173</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3263157894736842</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3263157894736842</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6137931034482759</v>
+        <v>0.7172413793103448</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3473684210526316</v>
+        <v>0.4</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6137931034482759</v>
+        <v>0.7172413793103448</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3473684210526316</v>
+        <v>0.4</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.7310344827586207</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3578947368421053</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.7310344827586207</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3578947368421053</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6275862068965518</v>
+        <v>0.7517241379310344</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4105263157894737</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6275862068965518</v>
+        <v>0.7517241379310344</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4105263157894737</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6827586206896552</v>
+        <v>0.7586206896551724</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6827586206896552</v>
+        <v>0.7586206896551724</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.7655172413793103</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4315789473684211</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.7655172413793103</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4315789473684211</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C63" t="n">
-        <v>0.696551724137931</v>
+        <v>0.8206896551724138</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C64" t="n">
-        <v>0.696551724137931</v>
+        <v>0.8206896551724138</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7448275862068966</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7448275862068966</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7655172413793103</v>
+        <v>0.8413793103448276</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4947368421052631</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7655172413793103</v>
+        <v>0.8413793103448276</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.4947368421052631</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7793103448275862</v>
+        <v>0.8551724137931035</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5157894736842106</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7793103448275862</v>
+        <v>0.8551724137931035</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5157894736842106</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8068965517241379</v>
+        <v>0.8827586206896552</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5368421052631579</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8068965517241379</v>
+        <v>0.8827586206896552</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5368421052631579</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8206896551724138</v>
+        <v>0.8896551724137931</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5473684210526316</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8206896551724138</v>
+        <v>0.8896551724137931</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5473684210526316</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8758620689655172</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6210526315789474</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8758620689655172</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6210526315789474</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8896551724137931</v>
+        <v>0.903448275862069</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8896551724137931</v>
+        <v>0.903448275862069</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C79" t="n">
-        <v>0.903448275862069</v>
+        <v>0.9241379310344827</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6210526315789474</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C80" t="n">
-        <v>0.903448275862069</v>
+        <v>0.9241379310344827</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6210526315789474</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9103448275862069</v>
+        <v>0.9310344827586207</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.7052631578947368</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9103448275862069</v>
+        <v>0.9310344827586207</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.7052631578947368</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9379310344827586</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9379310344827586</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9448275862068966</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.8</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9448275862068966</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.8</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9379310344827586</v>
+        <v>0.9517241379310345</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9379310344827586</v>
+        <v>0.9517241379310345</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9448275862068966</v>
+        <v>0.9793103448275862</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9448275862068966</v>
+        <v>0.9793103448275862</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9517241379310345</v>
+        <v>0.9931034482758621</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8105263157894737</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9517241379310345</v>
+        <v>0.9931034482758621</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8105263157894737</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8842105263157894</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6901633393829402</v>
+        <v>0.734736842105263</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="n">
-        <v>0.8842105263157894</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.9724137931034482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="n">
-        <v>0.9052631578947369</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.9724137931034482</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="n">
-        <v>0.9052631578947369</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.9862068965517241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.9862068965517241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9931034482758621</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="n">
-        <v>0.9578947368421052</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.9931034482758621</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="n">
-        <v>0.9578947368421052</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.6901633393829402</v>
-      </c>
-      <c r="C102" t="n">
         <v>1</v>
       </c>
     </row>
